--- a/piyush poplusion.xlsx
+++ b/piyush poplusion.xlsx
@@ -5,17 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LITERACY INDIA\Documents\Harshita 3-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LITERACY INDIA\Documents\piyush kumar5-6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69707AE-A4CD-451E-9223-926936120346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E78C83-DE2F-4211-B9EB-3C8038975DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5420CA30-D77E-45ED-B887-FF1235676BC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="67">
   <si>
     <t>State/UT</t>
   </si>
@@ -357,6 +361,24 @@
   </si>
   <si>
     <t>Find what Percentage of total population is Male population.</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Gender Ratio</t>
+  </si>
+  <si>
+    <t>Sum of Male Population</t>
+  </si>
+  <si>
+    <t>Sum of Female Population</t>
+  </si>
+  <si>
+    <t>Sum of Population</t>
   </si>
 </sst>
 </file>
@@ -740,7 +762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -786,24 +808,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -813,6 +817,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -834,6 +841,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,6 +991,566 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="LITERACY INDIA" refreshedDate="45656.738604050923" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="33" xr:uid="{981C277F-2939-4C8E-AF0C-FBC568A6B076}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="State/UT" numFmtId="0">
+      <sharedItems count="33">
+        <s v="Andaman &amp; Nicobar"/>
+        <s v="Andhra Pradesh"/>
+        <s v="Arunachal Pradesh"/>
+        <s v="Assam"/>
+        <s v="Bihar"/>
+        <s v="Chhattisgarh"/>
+        <s v="Dadra &amp; Nagar Haveli and Daman &amp; Diu"/>
+        <s v="Delhi"/>
+        <s v="Goa"/>
+        <s v="Gujarat"/>
+        <s v="Haryana"/>
+        <s v="Himachal Pradesh"/>
+        <s v="Jammu &amp; Kashmir"/>
+        <s v="Jharkhand"/>
+        <s v="Karnataka"/>
+        <s v="Kerala"/>
+        <s v="Lakshadweep"/>
+        <s v="Madhya Pradesh"/>
+        <s v="Maharashtra"/>
+        <s v="Manipur"/>
+        <s v="Meghalaya"/>
+        <s v="Mizoram"/>
+        <s v="Nagaland"/>
+        <s v="Odisha"/>
+        <s v="Punjab"/>
+        <s v="Rajasthan"/>
+        <s v="Sikkim"/>
+        <s v="Tamil Nadu"/>
+        <s v="Telangana"/>
+        <s v="Tripura"/>
+        <s v="Uttar Pradesh"/>
+        <s v="Uttarakhand"/>
+        <s v="West Bengal"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Population" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="64473" maxValue="199812341" count="33">
+        <n v="380581"/>
+        <n v="49386799"/>
+        <n v="1383727"/>
+        <n v="31205576"/>
+        <n v="104099452"/>
+        <n v="25545198"/>
+        <n v="585764"/>
+        <n v="16787941"/>
+        <n v="1458545"/>
+        <n v="60439692"/>
+        <n v="25351462"/>
+        <n v="6864602"/>
+        <n v="12541302"/>
+        <n v="32988134"/>
+        <n v="61095297"/>
+        <n v="33406061"/>
+        <n v="64473"/>
+        <n v="72626809"/>
+        <n v="112374333"/>
+        <n v="2570390"/>
+        <n v="2966889"/>
+        <n v="1097206"/>
+        <n v="1978502"/>
+        <n v="41974218"/>
+        <n v="27743338"/>
+        <n v="68548437"/>
+        <n v="610577"/>
+        <n v="72147030"/>
+        <n v="35193978"/>
+        <n v="3673917"/>
+        <n v="199812341"/>
+        <n v="10086292"/>
+        <n v="91276115"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Male Population" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="33123" maxValue="104596415"/>
+    </cacheField>
+    <cacheField name="Female Population" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="31350" maxValue="95215926"/>
+    </cacheField>
+    <cacheField name="Gender Ratio" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="700" maxValue="1084"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="33">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="202871"/>
+    <n v="177710"/>
+    <n v="876"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="24831408"/>
+    <n v="24555391"/>
+    <n v="989"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="713912"/>
+    <n v="669815"/>
+    <n v="938"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="15939443"/>
+    <n v="15266133"/>
+    <n v="958"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="54278157"/>
+    <n v="49821295"/>
+    <n v="919"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <n v="12827915"/>
+    <n v="12717283"/>
+    <n v="992"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <n v="344669"/>
+    <n v="241095"/>
+    <n v="700"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <n v="8987326"/>
+    <n v="7800615"/>
+    <n v="868"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <n v="739140"/>
+    <n v="719405"/>
+    <n v="973"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <n v="31491260"/>
+    <n v="28948432"/>
+    <n v="920"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <n v="13494734"/>
+    <n v="11856728"/>
+    <n v="879"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <n v="3481873"/>
+    <n v="3382729"/>
+    <n v="972"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="12"/>
+    <n v="6640662"/>
+    <n v="5900640"/>
+    <n v="889"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="13"/>
+    <n v="16930315"/>
+    <n v="16057819"/>
+    <n v="948"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="14"/>
+    <n v="30966657"/>
+    <n v="30128640"/>
+    <n v="973"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="15"/>
+    <n v="16027412"/>
+    <n v="17378649"/>
+    <n v="1084"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="16"/>
+    <n v="33123"/>
+    <n v="31350"/>
+    <n v="947"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="17"/>
+    <n v="37612306"/>
+    <n v="35014503"/>
+    <n v="931"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="18"/>
+    <n v="58243056"/>
+    <n v="54131277"/>
+    <n v="931"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="19"/>
+    <n v="1290171"/>
+    <n v="1280219"/>
+    <n v="992"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="20"/>
+    <n v="1491832"/>
+    <n v="1475057"/>
+    <n v="989"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="21"/>
+    <n v="555339"/>
+    <n v="541867"/>
+    <n v="976"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="22"/>
+    <n v="1024649"/>
+    <n v="953853"/>
+    <n v="931"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="23"/>
+    <n v="21212136"/>
+    <n v="20762082"/>
+    <n v="979"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="24"/>
+    <n v="14639465"/>
+    <n v="13103873"/>
+    <n v="895"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="25"/>
+    <n v="35550997"/>
+    <n v="32997440"/>
+    <n v="928"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="26"/>
+    <n v="323070"/>
+    <n v="287507"/>
+    <n v="890"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="27"/>
+    <n v="36137975"/>
+    <n v="36009055"/>
+    <n v="996"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="28"/>
+    <n v="17611633"/>
+    <n v="17582345"/>
+    <n v="998"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="29"/>
+    <n v="1874376"/>
+    <n v="1799541"/>
+    <n v="960"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="30"/>
+    <n v="104596415"/>
+    <n v="95215926"/>
+    <n v="912"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="31"/>
+    <n v="5137773"/>
+    <n v="4948519"/>
+    <n v="963"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="32"/>
+    <n v="46809027"/>
+    <n v="44467088"/>
+    <n v="950"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8837873C-BAEF-425D-A1FC-3F4C524D7F75}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0">
+      <items count="34">
+        <item x="16"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="26"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="29"/>
+        <item x="11"/>
+        <item x="31"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="24"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="28"/>
+        <item x="23"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="14"/>
+        <item x="25"/>
+        <item x="27"/>
+        <item x="17"/>
+        <item x="32"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField name="Sum of Population" fld="1" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Sum of Female Population" fld="3" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Sum of Gender Ratio" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Male Population" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,11 +1886,726 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0CB7BDF-CA86-4F0B-B625-4C522C823927}">
+  <dimension ref="A3:E37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="18" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="18" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="18" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="18" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="18" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="18" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="18" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="18" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="25.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="46">
+        <v>380581</v>
+      </c>
+      <c r="C4" s="46">
+        <v>177710</v>
+      </c>
+      <c r="D4" s="45">
+        <v>876</v>
+      </c>
+      <c r="E4" s="46">
+        <v>202871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="46">
+        <v>49386799</v>
+      </c>
+      <c r="C5" s="46">
+        <v>24555391</v>
+      </c>
+      <c r="D5" s="45">
+        <v>989</v>
+      </c>
+      <c r="E5" s="46">
+        <v>24831408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="46">
+        <v>1383727</v>
+      </c>
+      <c r="C6" s="46">
+        <v>669815</v>
+      </c>
+      <c r="D6" s="45">
+        <v>938</v>
+      </c>
+      <c r="E6" s="46">
+        <v>713912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="46">
+        <v>31205576</v>
+      </c>
+      <c r="C7" s="46">
+        <v>15266133</v>
+      </c>
+      <c r="D7" s="45">
+        <v>958</v>
+      </c>
+      <c r="E7" s="46">
+        <v>15939443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46">
+        <v>104099452</v>
+      </c>
+      <c r="C8" s="46">
+        <v>49821295</v>
+      </c>
+      <c r="D8" s="45">
+        <v>919</v>
+      </c>
+      <c r="E8" s="46">
+        <v>54278157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="46">
+        <v>25545198</v>
+      </c>
+      <c r="C9" s="46">
+        <v>12717283</v>
+      </c>
+      <c r="D9" s="45">
+        <v>992</v>
+      </c>
+      <c r="E9" s="46">
+        <v>12827915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="46">
+        <v>585764</v>
+      </c>
+      <c r="C10" s="46">
+        <v>241095</v>
+      </c>
+      <c r="D10" s="45">
+        <v>700</v>
+      </c>
+      <c r="E10" s="46">
+        <v>344669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="46">
+        <v>16787941</v>
+      </c>
+      <c r="C11" s="46">
+        <v>7800615</v>
+      </c>
+      <c r="D11" s="45">
+        <v>868</v>
+      </c>
+      <c r="E11" s="46">
+        <v>8987326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="46">
+        <v>1458545</v>
+      </c>
+      <c r="C12" s="46">
+        <v>719405</v>
+      </c>
+      <c r="D12" s="45">
+        <v>973</v>
+      </c>
+      <c r="E12" s="46">
+        <v>739140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="46">
+        <v>60439692</v>
+      </c>
+      <c r="C13" s="46">
+        <v>28948432</v>
+      </c>
+      <c r="D13" s="45">
+        <v>920</v>
+      </c>
+      <c r="E13" s="46">
+        <v>31491260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="46">
+        <v>25351462</v>
+      </c>
+      <c r="C14" s="46">
+        <v>11856728</v>
+      </c>
+      <c r="D14" s="45">
+        <v>879</v>
+      </c>
+      <c r="E14" s="46">
+        <v>13494734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="46">
+        <v>6864602</v>
+      </c>
+      <c r="C15" s="46">
+        <v>3382729</v>
+      </c>
+      <c r="D15" s="45">
+        <v>972</v>
+      </c>
+      <c r="E15" s="46">
+        <v>3481873</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="46">
+        <v>12541302</v>
+      </c>
+      <c r="C16" s="46">
+        <v>5900640</v>
+      </c>
+      <c r="D16" s="45">
+        <v>889</v>
+      </c>
+      <c r="E16" s="46">
+        <v>6640662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="46">
+        <v>32988134</v>
+      </c>
+      <c r="C17" s="46">
+        <v>16057819</v>
+      </c>
+      <c r="D17" s="45">
+        <v>948</v>
+      </c>
+      <c r="E17" s="46">
+        <v>16930315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="46">
+        <v>61095297</v>
+      </c>
+      <c r="C18" s="46">
+        <v>30128640</v>
+      </c>
+      <c r="D18" s="45">
+        <v>973</v>
+      </c>
+      <c r="E18" s="46">
+        <v>30966657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="46">
+        <v>33406061</v>
+      </c>
+      <c r="C19" s="46">
+        <v>17378649</v>
+      </c>
+      <c r="D19" s="45">
+        <v>1084</v>
+      </c>
+      <c r="E19" s="46">
+        <v>16027412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="46">
+        <v>64473</v>
+      </c>
+      <c r="C20" s="46">
+        <v>31350</v>
+      </c>
+      <c r="D20" s="45">
+        <v>947</v>
+      </c>
+      <c r="E20" s="46">
+        <v>33123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="46">
+        <v>72626809</v>
+      </c>
+      <c r="C21" s="46">
+        <v>35014503</v>
+      </c>
+      <c r="D21" s="45">
+        <v>931</v>
+      </c>
+      <c r="E21" s="46">
+        <v>37612306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="46">
+        <v>112374333</v>
+      </c>
+      <c r="C22" s="46">
+        <v>54131277</v>
+      </c>
+      <c r="D22" s="45">
+        <v>931</v>
+      </c>
+      <c r="E22" s="46">
+        <v>58243056</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="46">
+        <v>2570390</v>
+      </c>
+      <c r="C23" s="46">
+        <v>1280219</v>
+      </c>
+      <c r="D23" s="45">
+        <v>992</v>
+      </c>
+      <c r="E23" s="46">
+        <v>1290171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="46">
+        <v>2966889</v>
+      </c>
+      <c r="C24" s="46">
+        <v>1475057</v>
+      </c>
+      <c r="D24" s="45">
+        <v>989</v>
+      </c>
+      <c r="E24" s="46">
+        <v>1491832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="46">
+        <v>1097206</v>
+      </c>
+      <c r="C25" s="46">
+        <v>541867</v>
+      </c>
+      <c r="D25" s="45">
+        <v>976</v>
+      </c>
+      <c r="E25" s="46">
+        <v>555339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="46">
+        <v>1978502</v>
+      </c>
+      <c r="C26" s="46">
+        <v>953853</v>
+      </c>
+      <c r="D26" s="45">
+        <v>931</v>
+      </c>
+      <c r="E26" s="46">
+        <v>1024649</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="46">
+        <v>41974218</v>
+      </c>
+      <c r="C27" s="46">
+        <v>20762082</v>
+      </c>
+      <c r="D27" s="45">
+        <v>979</v>
+      </c>
+      <c r="E27" s="46">
+        <v>21212136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="46">
+        <v>27743338</v>
+      </c>
+      <c r="C28" s="46">
+        <v>13103873</v>
+      </c>
+      <c r="D28" s="45">
+        <v>895</v>
+      </c>
+      <c r="E28" s="46">
+        <v>14639465</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="46">
+        <v>68548437</v>
+      </c>
+      <c r="C29" s="46">
+        <v>32997440</v>
+      </c>
+      <c r="D29" s="45">
+        <v>928</v>
+      </c>
+      <c r="E29" s="46">
+        <v>35550997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="46">
+        <v>610577</v>
+      </c>
+      <c r="C30" s="46">
+        <v>287507</v>
+      </c>
+      <c r="D30" s="45">
+        <v>890</v>
+      </c>
+      <c r="E30" s="46">
+        <v>323070</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="46">
+        <v>72147030</v>
+      </c>
+      <c r="C31" s="46">
+        <v>36009055</v>
+      </c>
+      <c r="D31" s="45">
+        <v>996</v>
+      </c>
+      <c r="E31" s="46">
+        <v>36137975</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="46">
+        <v>35193978</v>
+      </c>
+      <c r="C32" s="46">
+        <v>17582345</v>
+      </c>
+      <c r="D32" s="45">
+        <v>998</v>
+      </c>
+      <c r="E32" s="46">
+        <v>17611633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="46">
+        <v>3673917</v>
+      </c>
+      <c r="C33" s="46">
+        <v>1799541</v>
+      </c>
+      <c r="D33" s="45">
+        <v>960</v>
+      </c>
+      <c r="E33" s="46">
+        <v>1874376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="46">
+        <v>199812341</v>
+      </c>
+      <c r="C34" s="46">
+        <v>95215926</v>
+      </c>
+      <c r="D34" s="45">
+        <v>912</v>
+      </c>
+      <c r="E34" s="46">
+        <v>104596415</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="46">
+        <v>10086292</v>
+      </c>
+      <c r="C35" s="46">
+        <v>4948519</v>
+      </c>
+      <c r="D35" s="45">
+        <v>963</v>
+      </c>
+      <c r="E35" s="46">
+        <v>5137773</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="46">
+        <v>91276115</v>
+      </c>
+      <c r="C36" s="46">
+        <v>44467088</v>
+      </c>
+      <c r="D36" s="45">
+        <v>950</v>
+      </c>
+      <c r="E36" s="46">
+        <v>46809027</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="46">
+        <v>1208264978</v>
+      </c>
+      <c r="C37" s="46">
+        <v>586223881</v>
+      </c>
+      <c r="D37" s="45">
+        <v>31046</v>
+      </c>
+      <c r="E37" s="46">
+        <v>622041097</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3957C55E-4FC6-451A-825F-EE54C60E19DA}">
   <dimension ref="A1:AH71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="J72" sqref="J72"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1382,20 +2685,20 @@
       <c r="E3" s="2">
         <v>989</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="21"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
       <c r="S3" s="6" t="s">
         <v>41</v>
       </c>
@@ -1416,20 +2719,20 @@
       <c r="E4" s="2">
         <v>938</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="30"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="42"/>
       <c r="S4" s="7">
         <f>SUM(Table1[Population])</f>
         <v>1208264978</v>
@@ -1871,20 +3174,20 @@
       <c r="E17" s="3">
         <v>1084</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="36"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="4">
         <f>(Table1[Male Population]/Table1[Population])*100</f>
         <v>47.977557126534613</v>
@@ -1923,16 +3226,16 @@
       <c r="E19" s="2">
         <v>931</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="39"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
       <c r="O19" s="6" t="s">
         <v>41</v>
       </c>
@@ -1953,16 +3256,16 @@
       <c r="E20" s="2">
         <v>931</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="39"/>
       <c r="O20" s="5">
         <f>VLOOKUP(A17,Table1[],2,0)</f>
         <v>33406061</v>
@@ -2108,14 +3411,14 @@
       <c r="E25" s="2">
         <v>979</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="42"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="33"/>
       <c r="O25" s="5"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
@@ -2165,14 +3468,14 @@
       <c r="E27" s="2">
         <v>928</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="42"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="33"/>
       <c r="O27" s="5"/>
     </row>
     <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2191,14 +3494,14 @@
       <c r="E28" s="2">
         <v>890</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="33"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
       <c r="O28" s="5"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
@@ -2877,16 +4180,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="G28:N28"/>
-    <mergeCell ref="G16:R16"/>
-    <mergeCell ref="G17:R17"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="G24:N24"/>
-    <mergeCell ref="G22:N22"/>
-    <mergeCell ref="G23:N23"/>
-    <mergeCell ref="G26:N26"/>
-    <mergeCell ref="G27:N27"/>
-    <mergeCell ref="G25:N25"/>
     <mergeCell ref="G3:R3"/>
     <mergeCell ref="G13:R13"/>
     <mergeCell ref="G15:R15"/>
@@ -2902,6 +4195,16 @@
     <mergeCell ref="G10:R10"/>
     <mergeCell ref="G11:R11"/>
     <mergeCell ref="G12:R12"/>
+    <mergeCell ref="G28:N28"/>
+    <mergeCell ref="G16:R16"/>
+    <mergeCell ref="G17:R17"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="G24:N24"/>
+    <mergeCell ref="G22:N22"/>
+    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G26:N26"/>
+    <mergeCell ref="G27:N27"/>
+    <mergeCell ref="G25:N25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
